--- a/Phase 2/scrum board.xlsx
+++ b/Phase 2/scrum board.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="30" windowWidth="9570" windowHeight="8520"/>
+    <workbookView xWindow="192" yWindow="36" windowWidth="9576" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -203,14 +203,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -276,6 +268,15 @@
     <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -319,7 +320,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -328,7 +329,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -342,21 +343,21 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -369,7 +370,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -659,33 +660,33 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="51" style="1" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="41.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="48.140625" customWidth="1"/>
+    <col min="2" max="2" width="48.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="33.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="48.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="92.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" ht="92.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -696,7 +697,7 @@
       <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>44</v>
       </c>
     </row>
@@ -705,7 +706,7 @@
       <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>44</v>
       </c>
     </row>
@@ -714,7 +715,7 @@
       <c r="E4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>43</v>
       </c>
     </row>
@@ -723,7 +724,7 @@
       <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -732,7 +733,7 @@
       <c r="E6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>42</v>
       </c>
     </row>
@@ -741,7 +742,7 @@
       <c r="E7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -751,7 +752,7 @@
       <c r="E8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>45</v>
       </c>
     </row>
@@ -761,7 +762,7 @@
       <c r="E9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="12" t="s">
         <v>42</v>
       </c>
     </row>
@@ -771,7 +772,7 @@
       <c r="E10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="12" t="s">
         <v>42</v>
       </c>
     </row>
@@ -781,7 +782,7 @@
       <c r="E11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -791,7 +792,7 @@
       <c r="E12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="13" t="s">
         <v>43</v>
       </c>
     </row>
@@ -801,7 +802,7 @@
       <c r="E13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>45</v>
       </c>
     </row>
@@ -809,12 +810,12 @@
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -825,29 +826,29 @@
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -855,25 +856,25 @@
       <c r="A23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="12" t="s">
+    <row r="26" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>24</v>
       </c>
@@ -881,7 +882,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>26</v>
       </c>
@@ -889,12 +890,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>29</v>
       </c>
@@ -902,12 +903,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B35" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>32</v>
       </c>
@@ -915,12 +916,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B38" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>35</v>
       </c>
@@ -928,17 +929,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>39</v>
       </c>
@@ -946,7 +947,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B45" s="2" t="s">
         <v>41</v>
       </c>
@@ -963,7 +964,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -975,7 +976,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
